--- a/uploaded_file1.xlsx
+++ b/uploaded_file1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frankschweitzer/Documents/Emily Cadent/TV_Ad_Scraper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFE16D9-3373-7742-8C4A-84DDD6E6C4C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE46263-79C3-6546-8CC2-26ACEDDD0879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16440" xr2:uid="{BEDAF458-AB54-4F4B-AFF0-22B8A8AAABE8}"/>
   </bookViews>
